--- a/scripts/Provincial_Tools/tbl_spp.xlsx
+++ b/scripts/Provincial_Tools/tbl_spp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\git\p3t_ArcGIS_Pro_Tools\scripts\SPCOMP_n_SFU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\git\p3t_ArcGIS_Pro_Tools\scripts\Provincial_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1517C5CE-AB00-483C-A6C7-05FF93591EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBA3EA5-711C-414E-A586-43FA956A0EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instruction" sheetId="3" r:id="rId1"/>
@@ -2482,7 +2482,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2626,12 +2626,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3188,7 +3182,7 @@
     </tableColumn>
     <tableColumn id="6" xr3:uid="{D68129D7-B99C-4F64-86C2-81E54A39E558}" name="Comments"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3500,7 +3494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F87D7-D9FE-4D3B-BF72-BDA824B4466E}">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -3563,10 +3557,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection sqref="A1:C122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3576,7 +3573,7 @@
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="72.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3619,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="b">
-        <f>EXACT(B2,C2)</f>
+        <f t="shared" ref="F2:F33" si="0">EXACT(B2,C2)</f>
         <v>1</v>
       </c>
     </row>
@@ -3640,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="b">
-        <f>EXACT(B3,C3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3661,7 +3658,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="b">
-        <f>EXACT(B4,C4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3682,7 +3679,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="b">
-        <f>EXACT(B5,C5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3703,7 +3700,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="b">
-        <f>EXACT(B6,C6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3724,7 +3721,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="b">
-        <f>EXACT(B7,C7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3745,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="b">
-        <f>EXACT(B8,C8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3766,7 +3763,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="b">
-        <f>EXACT(B9,C9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3787,7 +3784,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="b">
-        <f>EXACT(B10,C10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3808,7 +3805,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="b">
-        <f>EXACT(B11,C11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3829,7 +3826,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="b">
-        <f>EXACT(B12,C12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3850,7 +3847,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="b">
-        <f>EXACT(B13,C13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3871,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="b">
-        <f>EXACT(B14,C14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3892,7 +3889,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="b">
-        <f>EXACT(B15,C15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3913,7 +3910,7 @@
         <v>20</v>
       </c>
       <c r="F16" t="b">
-        <f>EXACT(B16,C16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3934,7 +3931,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="b">
-        <f>EXACT(B17,C17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3955,7 +3952,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="b">
-        <f>EXACT(B18,C18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3976,7 +3973,7 @@
         <v>24</v>
       </c>
       <c r="F19" t="b">
-        <f>EXACT(B19,C19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3997,7 +3994,7 @@
         <v>30</v>
       </c>
       <c r="F20" t="b">
-        <f>EXACT(B20,C20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4018,7 +4015,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="b">
-        <f>EXACT(B21,C21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4039,7 +4036,7 @@
         <v>33</v>
       </c>
       <c r="F22" t="b">
-        <f>EXACT(B22,C22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4060,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="b">
-        <f>EXACT(B23,C23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4081,7 +4078,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="b">
-        <f>EXACT(B24,C24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4102,7 +4099,7 @@
         <v>37</v>
       </c>
       <c r="F25" t="b">
-        <f>EXACT(B25,C25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4123,7 +4120,7 @@
         <v>33</v>
       </c>
       <c r="F26" t="b">
-        <f>EXACT(B26,C26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4144,7 +4141,7 @@
         <v>33</v>
       </c>
       <c r="F27" t="b">
-        <f>EXACT(B27,C27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4165,7 +4162,7 @@
         <v>33</v>
       </c>
       <c r="F28" t="b">
-        <f>EXACT(B28,C28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4186,7 +4183,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="b">
-        <f>EXACT(B29,C29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4207,7 +4204,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="b">
-        <f>EXACT(B30,C30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4228,7 +4225,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="b">
-        <f>EXACT(B31,C31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4249,7 +4246,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="b">
-        <f>EXACT(B32,C32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4270,7 +4267,7 @@
         <v>37</v>
       </c>
       <c r="F33" t="b">
-        <f>EXACT(B33,C33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4291,7 +4288,7 @@
         <v>48</v>
       </c>
       <c r="F34" t="b">
-        <f>EXACT(B34,C34)</f>
+        <f t="shared" ref="F34:F65" si="1">EXACT(B34,C34)</f>
         <v>0</v>
       </c>
     </row>
@@ -4312,7 +4309,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="b">
-        <f>EXACT(B35,C35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4333,7 +4330,7 @@
         <v>48</v>
       </c>
       <c r="F36" t="b">
-        <f>EXACT(B36,C36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4354,7 +4351,7 @@
         <v>48</v>
       </c>
       <c r="F37" t="b">
-        <f>EXACT(B37,C37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4375,7 +4372,7 @@
         <v>48</v>
       </c>
       <c r="F38" t="b">
-        <f>EXACT(B38,C38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4396,7 +4393,7 @@
         <v>48</v>
       </c>
       <c r="F39" t="b">
-        <f>EXACT(B39,C39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4417,7 +4414,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="b">
-        <f>EXACT(B40,C40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4438,7 +4435,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="b">
-        <f>EXACT(B41,C41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4459,7 +4456,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="b">
-        <f>EXACT(B42,C42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4480,7 +4477,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="b">
-        <f>EXACT(B43,C43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4501,7 +4498,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="b">
-        <f>EXACT(B44,C44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4522,7 +4519,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="b">
-        <f>EXACT(B45,C45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4543,7 +4540,7 @@
         <v>61</v>
       </c>
       <c r="F46" t="b">
-        <f>EXACT(B46,C46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4564,7 +4561,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="b">
-        <f>EXACT(B47,C47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4585,7 +4582,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="b">
-        <f>EXACT(B48,C48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4606,7 +4603,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="b">
-        <f>EXACT(B49,C49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4627,7 +4624,7 @@
         <v>66</v>
       </c>
       <c r="F50" t="b">
-        <f>EXACT(B50,C50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G50" t="s">
@@ -4651,7 +4648,7 @@
         <v>66</v>
       </c>
       <c r="F51" t="b">
-        <f>EXACT(B51,C51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G51" t="s">
@@ -4675,7 +4672,7 @@
         <v>66</v>
       </c>
       <c r="F52" t="b">
-        <f>EXACT(B52,C52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G52" t="s">
@@ -4699,7 +4696,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="b">
-        <f>EXACT(B53,C53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4720,7 +4717,7 @@
         <v>72</v>
       </c>
       <c r="F54" t="b">
-        <f>EXACT(B54,C54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4741,7 +4738,7 @@
         <v>72</v>
       </c>
       <c r="F55" t="b">
-        <f>EXACT(B55,C55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4762,7 +4759,7 @@
         <v>72</v>
       </c>
       <c r="F56" t="b">
-        <f>EXACT(B56,C56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4783,7 +4780,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="b">
-        <f>EXACT(B57,C57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4804,7 +4801,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="b">
-        <f>EXACT(B58,C58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4825,7 +4822,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="b">
-        <f>EXACT(B59,C59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4846,7 +4843,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="b">
-        <f>EXACT(B60,C60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4867,7 +4864,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="b">
-        <f>EXACT(B61,C61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4888,7 +4885,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="b">
-        <f>EXACT(B62,C62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4909,7 +4906,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="b">
-        <f>EXACT(B63,C63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4930,7 +4927,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="b">
-        <f>EXACT(B64,C64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4951,7 +4948,7 @@
         <v>84</v>
       </c>
       <c r="F65" t="b">
-        <f>EXACT(B65,C65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4972,7 +4969,7 @@
         <v>84</v>
       </c>
       <c r="F66" t="b">
-        <f>EXACT(B66,C66)</f>
+        <f t="shared" ref="F66:F97" si="2">EXACT(B66,C66)</f>
         <v>1</v>
       </c>
     </row>
@@ -4993,7 +4990,7 @@
         <v>84</v>
       </c>
       <c r="F67" t="b">
-        <f>EXACT(B67,C67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5014,7 +5011,7 @@
         <v>84</v>
       </c>
       <c r="F68" t="b">
-        <f>EXACT(B68,C68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5035,7 +5032,7 @@
         <v>84</v>
       </c>
       <c r="F69" t="b">
-        <f>EXACT(B69,C69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5056,7 +5053,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="b">
-        <f>EXACT(B70,C70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5077,7 +5074,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="b">
-        <f>EXACT(B71,C71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5098,7 +5095,7 @@
         <v>93</v>
       </c>
       <c r="F72" t="b">
-        <f>EXACT(B72,C72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5119,7 +5116,7 @@
         <v>93</v>
       </c>
       <c r="F73" t="b">
-        <f>EXACT(B73,C73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5140,7 +5137,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="b">
-        <f>EXACT(B74,C74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5161,7 +5158,7 @@
         <v>84</v>
       </c>
       <c r="F75" t="b">
-        <f>EXACT(B75,C75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5182,7 +5179,7 @@
         <v>99</v>
       </c>
       <c r="F76" t="b">
-        <f>EXACT(B76,C76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5203,7 +5200,7 @@
         <v>101</v>
       </c>
       <c r="F77" t="b">
-        <f>EXACT(B77,C77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5224,7 +5221,7 @@
         <v>101</v>
       </c>
       <c r="F78" t="b">
-        <f>EXACT(B78,C78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5245,7 +5242,7 @@
         <v>104</v>
       </c>
       <c r="F79" t="b">
-        <f>EXACT(B79,C79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5266,7 +5263,7 @@
         <v>106</v>
       </c>
       <c r="F80" t="b">
-        <f>EXACT(B80,C80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5287,7 +5284,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="b">
-        <f>EXACT(B81,C81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5308,7 +5305,7 @@
         <v>106</v>
       </c>
       <c r="F82" t="b">
-        <f>EXACT(B82,C82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5329,7 +5326,7 @@
         <v>99</v>
       </c>
       <c r="F83" t="b">
-        <f>EXACT(B83,C83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5350,7 +5347,7 @@
         <v>106</v>
       </c>
       <c r="F84" t="b">
-        <f>EXACT(B84,C84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5371,7 +5368,7 @@
         <v>106</v>
       </c>
       <c r="F85" t="b">
-        <f>EXACT(B85,C85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5392,7 +5389,7 @@
         <v>106</v>
       </c>
       <c r="F86" t="b">
-        <f>EXACT(B86,C86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5413,7 +5410,7 @@
         <v>99</v>
       </c>
       <c r="F87" t="b">
-        <f>EXACT(B87,C87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5434,7 +5431,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="b">
-        <f>EXACT(B88,C88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5455,7 +5452,7 @@
         <v>118</v>
       </c>
       <c r="F89" t="b">
-        <f>EXACT(B89,C89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5476,7 +5473,7 @@
         <v>117</v>
       </c>
       <c r="F90" t="b">
-        <f>EXACT(B90,C90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5497,7 +5494,7 @@
         <v>117</v>
       </c>
       <c r="F91" t="b">
-        <f>EXACT(B91,C91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5518,7 +5515,7 @@
         <v>117</v>
       </c>
       <c r="F92" t="b">
-        <f>EXACT(B92,C92)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5539,7 +5536,7 @@
         <v>117</v>
       </c>
       <c r="F93" t="b">
-        <f>EXACT(B93,C93)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5560,7 +5557,7 @@
         <v>117</v>
       </c>
       <c r="F94" t="b">
-        <f>EXACT(B94,C94)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5581,7 +5578,7 @@
         <v>126</v>
       </c>
       <c r="F95" t="b">
-        <f>EXACT(B95,C95)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5602,7 +5599,7 @@
         <v>128</v>
       </c>
       <c r="F96" t="b">
-        <f>EXACT(B96,C96)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G96" t="s">
@@ -5626,7 +5623,7 @@
         <v>104</v>
       </c>
       <c r="F97" t="b">
-        <f>EXACT(B97,C97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5647,7 +5644,7 @@
         <v>117</v>
       </c>
       <c r="F98" t="b">
-        <f>EXACT(B98,C98)</f>
+        <f t="shared" ref="F98:F122" si="3">EXACT(B98,C98)</f>
         <v>1</v>
       </c>
     </row>
@@ -5668,7 +5665,7 @@
         <v>104</v>
       </c>
       <c r="F99" t="b">
-        <f>EXACT(B99,C99)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5689,7 +5686,7 @@
         <v>133</v>
       </c>
       <c r="F100" t="b">
-        <f>EXACT(B100,C100)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5710,7 +5707,7 @@
         <v>104</v>
       </c>
       <c r="F101" t="b">
-        <f>EXACT(B101,C101)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5731,7 +5728,7 @@
         <v>136</v>
       </c>
       <c r="F102" t="b">
-        <f>EXACT(B102,C102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" t="s">
@@ -5755,7 +5752,7 @@
         <v>138</v>
       </c>
       <c r="F103" t="b">
-        <f>EXACT(B103,C103)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5776,7 +5773,7 @@
         <v>138</v>
       </c>
       <c r="F104" t="b">
-        <f>EXACT(B104,C104)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5797,7 +5794,7 @@
         <v>99</v>
       </c>
       <c r="F105" t="b">
-        <f>EXACT(B105,C105)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5818,7 +5815,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="b">
-        <f>EXACT(B106,C106)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5839,7 +5836,7 @@
         <v>145</v>
       </c>
       <c r="F107" t="b">
-        <f>EXACT(B107,C107)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5860,7 +5857,7 @@
         <v>147</v>
       </c>
       <c r="F108" t="b">
-        <f>EXACT(B108,C108)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5881,7 +5878,7 @@
         <v>104</v>
       </c>
       <c r="F109" t="b">
-        <f>EXACT(B109,C109)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5902,7 +5899,7 @@
         <v>104</v>
       </c>
       <c r="F110" t="b">
-        <f>EXACT(B110,C110)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5923,7 +5920,7 @@
         <v>145</v>
       </c>
       <c r="F111" t="b">
-        <f>EXACT(B111,C111)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5944,7 +5941,7 @@
         <v>147</v>
       </c>
       <c r="F112" t="b">
-        <f>EXACT(B112,C112)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5965,7 +5962,7 @@
         <v>145</v>
       </c>
       <c r="F113" t="b">
-        <f>EXACT(B113,C113)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5986,7 +5983,7 @@
         <v>7</v>
       </c>
       <c r="F114" t="b">
-        <f>EXACT(B114,C114)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6007,7 +6004,7 @@
         <v>145</v>
       </c>
       <c r="F115" t="b">
-        <f>EXACT(B115,C115)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6028,7 +6025,7 @@
         <v>147</v>
       </c>
       <c r="F116" t="b">
-        <f>EXACT(B116,C116)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6049,7 +6046,7 @@
         <v>7</v>
       </c>
       <c r="F117" t="b">
-        <f>EXACT(B117,C117)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6070,7 +6067,7 @@
         <v>77</v>
       </c>
       <c r="F118" t="b">
-        <f>EXACT(B118,C118)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6091,7 +6088,7 @@
         <v>7</v>
       </c>
       <c r="F119" t="b">
-        <f>EXACT(B119,C119)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6112,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="F120" t="b">
-        <f>EXACT(B120,C120)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6133,7 +6130,7 @@
         <v>7</v>
       </c>
       <c r="F121" t="b">
-        <f>EXACT(B121,C121)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6154,19 +6151,19 @@
         <v>30</v>
       </c>
       <c r="F122" t="b">
-        <f>EXACT(B122,C122)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="F2:F122 G96 G102">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/scripts/Provincial_Tools/tbl_spp.xlsx
+++ b/scripts/Provincial_Tools/tbl_spp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\git\p3t_ArcGIS_Pro_Tools\scripts\Provincial_Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\git\p3t_ArcGIS_Pro_Tools\scripts\Provincial_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBA3EA5-711C-414E-A586-43FA956A0EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A0602E-8A60-4088-AEEC-B737C0221562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25080" yWindow="960" windowWidth="21600" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instruction" sheetId="3" r:id="rId1"/>
@@ -3078,14 +3078,14 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3166,10 +3166,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A75024F-AE2F-4B42-B85F-B4FE83673C54}" name="Table1" displayName="Table1" ref="A1:G122" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A75024F-AE2F-4B42-B85F-B4FE83673C54}" name="Table1" displayName="Table1" ref="A1:G122" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:G122" xr:uid="{6A75024F-AE2F-4B42-B85F-B4FE83673C54}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G122">
-    <sortCondition ref="A1:A122"/>
+    <sortCondition ref="B1:B122"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{26E629A8-B0C2-4566-ADFF-2FE827013921}" name="spc"/>
@@ -3187,9 +3187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3227,7 +3227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3333,7 +3333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3475,7 +3475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3563,16 +3563,16 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3643,19 +3643,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" t="b">
         <f t="shared" si="0"/>
@@ -3664,19 +3664,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="b">
         <f t="shared" si="0"/>
@@ -3685,19 +3685,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F6" t="b">
         <f t="shared" si="0"/>
@@ -3706,19 +3706,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F7" t="b">
         <f t="shared" si="0"/>
@@ -3727,19 +3727,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F8" t="b">
         <f t="shared" si="0"/>
@@ -3769,19 +3769,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F10" t="b">
         <f t="shared" si="0"/>
@@ -3790,19 +3790,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F11" t="b">
         <f t="shared" si="0"/>
@@ -3811,19 +3811,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F12" t="b">
         <f t="shared" si="0"/>
@@ -3832,19 +3832,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F13" t="b">
         <f t="shared" si="0"/>
@@ -3853,19 +3853,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F14" t="b">
         <f t="shared" si="0"/>
@@ -3874,19 +3874,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F15" t="b">
         <f t="shared" si="0"/>
@@ -3895,19 +3895,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F16" t="b">
         <f t="shared" si="0"/>
@@ -3916,19 +3916,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F17" t="b">
         <f t="shared" si="0"/>
@@ -3937,19 +3937,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F18" t="b">
         <f t="shared" si="0"/>
@@ -3958,19 +3958,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F19" t="b">
         <f t="shared" si="0"/>
@@ -3979,124 +3979,124 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F20" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="F21" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F22" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="F23" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="F24" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F25" t="b">
         <f t="shared" si="0"/>
@@ -4105,19 +4105,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F26" t="b">
         <f t="shared" si="0"/>
@@ -4126,19 +4126,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F27" t="b">
         <f t="shared" si="0"/>
@@ -4147,19 +4147,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F28" t="b">
         <f t="shared" si="0"/>
@@ -4168,19 +4168,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F29" t="b">
         <f t="shared" si="0"/>
@@ -4189,19 +4189,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F30" t="b">
         <f t="shared" si="0"/>
@@ -4210,19 +4210,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F31" t="b">
         <f t="shared" si="0"/>
@@ -4231,19 +4231,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F32" t="b">
         <f t="shared" si="0"/>
@@ -4252,19 +4252,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F33" t="b">
         <f t="shared" si="0"/>
@@ -4273,187 +4273,187 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F34" t="b">
         <f t="shared" ref="F34:F65" si="1">EXACT(B34,C34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="F35" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F36" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F37" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F38" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F39" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="F40" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="F41" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="F42" t="b">
         <f t="shared" si="1"/>
@@ -4462,19 +4462,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="F43" t="b">
         <f t="shared" si="1"/>
@@ -4483,19 +4483,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F44" t="b">
         <f t="shared" si="1"/>
@@ -4504,19 +4504,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F45" t="b">
         <f t="shared" si="1"/>
@@ -4525,19 +4525,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="F46" t="b">
         <f t="shared" si="1"/>
@@ -4546,19 +4546,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F47" t="b">
         <f t="shared" si="1"/>
@@ -4567,49 +4567,49 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F48" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F49" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -4618,22 +4618,19 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F50" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G50" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -4642,22 +4639,19 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F51" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G51" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -4666,22 +4660,19 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F52" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G52" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -4690,7 +4681,7 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -4700,72 +4691,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F54" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F55" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F56" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -4774,7 +4765,7 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -4784,51 +4775,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="F58" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="F59" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -4837,7 +4828,7 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -4847,72 +4838,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="F61" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="F62" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
       <c r="F63" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -4921,7 +4912,7 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
@@ -4931,114 +4922,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="F65" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>209</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="F66" t="b">
         <f t="shared" ref="F66:F97" si="2">EXACT(B66,C66)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="E67" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="F67" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="F68" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="F69" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -5047,7 +5038,7 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
@@ -5057,9 +5048,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -5068,7 +5059,7 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
@@ -5078,51 +5069,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="F72" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F73" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -5131,145 +5125,151 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="F74" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F75" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E76" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="F76" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="F77" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="F78" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="F79" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="F80" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -5278,7 +5278,7 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -5288,135 +5288,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="F82" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="F83" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="F84" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="F85" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="F86" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="F87" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -5425,7 +5425,7 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -5435,213 +5435,210 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="F89" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E90" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="F90" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E91" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="F91" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F92" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F93" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D94" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E94" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F94" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D95" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F95" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E96" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F96" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G96" t="s">
-        <v>805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E97" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F97" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E98" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F98" t="b">
         <f t="shared" ref="F98:F122" si="3">EXACT(B98,C98)</f>
@@ -5650,40 +5647,43 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="F99" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="B100" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E100" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F100" t="b">
         <f t="shared" si="3"/>
@@ -5692,19 +5692,19 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E101" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F101" t="b">
         <f t="shared" si="3"/>
@@ -5713,43 +5713,40 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C102" t="s">
         <v>117</v>
       </c>
       <c r="D102" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E102" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F102" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D103" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E103" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F103" t="b">
         <f t="shared" si="3"/>
@@ -5758,19 +5755,19 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E104" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F104" t="b">
         <f t="shared" si="3"/>
@@ -5779,19 +5776,19 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D105" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E105" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F105" t="b">
         <f t="shared" si="3"/>
@@ -5800,19 +5797,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="F106" t="b">
         <f t="shared" si="3"/>
@@ -5821,40 +5818,43 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="D107" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E107" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F107" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B108" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D108" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E108" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F108" t="b">
         <f t="shared" si="3"/>
@@ -5863,19 +5863,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D109" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E109" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F109" t="b">
         <f t="shared" si="3"/>
@@ -5884,19 +5884,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C110" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D110" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E110" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F110" t="b">
         <f t="shared" si="3"/>
@@ -5905,40 +5905,40 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B111" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C111" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D111" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="F111" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="C112" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D112" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="F112" t="b">
         <f t="shared" si="3"/>
@@ -5947,19 +5947,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C113" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E113" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="F113" t="b">
         <f t="shared" si="3"/>
@@ -5968,19 +5968,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="D114" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E114" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="F114" t="b">
         <f t="shared" si="3"/>
@@ -5989,19 +5989,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C115" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D115" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E115" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F115" t="b">
         <f t="shared" si="3"/>
@@ -6031,19 +6031,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="D117" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E117" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="F117" t="b">
         <f t="shared" si="3"/>
@@ -6052,40 +6052,40 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C118" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D118" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E118" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="F118" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="D119" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E119" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="F119" t="b">
         <f t="shared" si="3"/>
@@ -6094,19 +6094,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E120" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="F120" t="b">
         <f t="shared" si="3"/>
@@ -6115,19 +6115,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F121" t="b">
         <f t="shared" si="3"/>
@@ -6158,7 +6158,7 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="F2:F122 G96 G102">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/scripts/Provincial_Tools/tbl_spp.xlsx
+++ b/scripts/Provincial_Tools/tbl_spp.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\git\p3t_ArcGIS_Pro_Tools\scripts\Provincial_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A0602E-8A60-4088-AEEC-B737C0221562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5765D7-E02F-4458-9173-922659E9D489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25080" yWindow="960" windowWidth="21600" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instruction" sheetId="3" r:id="rId1"/>
     <sheet name="tbl_spp" sheetId="1" r:id="rId2"/>
     <sheet name="uniq_only" sheetId="2" r:id="rId3"/>
-    <sheet name="tbl_sql_classify" sheetId="5" r:id="rId4"/>
+    <sheet name="tbl_sql_classify" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,6 +39,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={7F462AFD-EA6B-4C31-84EA-1F9FF7912953}</author>
+    <author>tc={657C987D-8ECC-4879-BAE3-A77813DA4E3E}</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7F462AFD-EA6B-4C31-84EA-1F9FF7912953}">
@@ -50,6 +51,14 @@
 What you see here as alternative is how Glen Watt would group them for the old growth project in GLSL</t>
       </text>
     </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{657C987D-8ECC-4879-BAE3-A77813DA4E3E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Original grouping by Larry Watkins</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2482,7 +2491,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2632,6 +2641,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -3487,6 +3502,9 @@
     <text>Yes, the values under spc_grp_alt can be edited, but it can really mess up the species sets (AllHwd, UH, LH, AllCon) and mess up the SQLs further down. So it's best to make minimal edits here.
 What you see here as alternative is how Glen Watt would group them for the old growth project in GLSL</text>
   </threadedComment>
+  <threadedComment ref="E1" dT="2025-10-22T13:42:15.63" personId="{C97DB794-E851-406E-8F11-0B3E4F95914B}" id="{657C987D-8ECC-4879-BAE3-A77813DA4E3E}">
+    <text>Original grouping by Larry Watkins</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -3498,52 +3516,52 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="93.140625" customWidth="1"/>
+    <col min="1" max="1" width="93.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
         <v>802</v>
       </c>
@@ -3563,20 +3581,20 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.41015625" customWidth="1"/>
+    <col min="3" max="3" width="13.5859375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1171875" customWidth="1"/>
+    <col min="5" max="5" width="12.5859375" customWidth="1"/>
+    <col min="6" max="6" width="10.29296875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3620,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -3641,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3683,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3704,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -3725,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3746,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3767,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3788,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -3809,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -3830,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -3851,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -3872,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -3893,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -3914,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3935,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>181</v>
       </c>
@@ -3956,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>182</v>
       </c>
@@ -3977,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -3998,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -4019,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>190</v>
       </c>
@@ -4040,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -4061,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -4103,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -4124,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -4145,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -4166,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -4187,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -4208,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -4229,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -4250,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -4271,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -4292,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>209</v>
       </c>
@@ -4313,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -4334,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -4355,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -4376,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>215</v>
       </c>
@@ -4397,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -4418,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -4439,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -4460,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>216</v>
       </c>
@@ -4481,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -4502,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>227</v>
       </c>
@@ -4523,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>228</v>
       </c>
@@ -4544,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>229</v>
       </c>
@@ -4565,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>231</v>
       </c>
@@ -4586,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -4607,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -4628,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>169</v>
       </c>
@@ -4649,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4670,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>170</v>
       </c>
@@ -4691,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>171</v>
       </c>
@@ -4712,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>174</v>
       </c>
@@ -4733,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -4754,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>177</v>
       </c>
@@ -4775,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>179</v>
       </c>
@@ -4796,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -4817,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>183</v>
       </c>
@@ -4838,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -4859,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -4880,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -4901,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -4922,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -4943,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -4964,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>193</v>
       </c>
@@ -4985,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>194</v>
       </c>
@@ -5006,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>195</v>
       </c>
@@ -5027,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -5048,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>196</v>
       </c>
@@ -5069,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>197</v>
       </c>
@@ -5090,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>198</v>
       </c>
@@ -5114,7 +5132,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>199</v>
       </c>
@@ -5138,7 +5156,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>200</v>
       </c>
@@ -5162,7 +5180,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>201</v>
       </c>
@@ -5183,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -5204,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -5225,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>206</v>
       </c>
@@ -5246,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>207</v>
       </c>
@@ -5267,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>212</v>
       </c>
@@ -5288,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>213</v>
       </c>
@@ -5309,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>214</v>
       </c>
@@ -5330,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -5351,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>222</v>
       </c>
@@ -5372,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>230</v>
       </c>
@@ -5393,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>236</v>
       </c>
@@ -5414,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>238</v>
       </c>
@@ -5435,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>240</v>
       </c>
@@ -5456,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>241</v>
       </c>
@@ -5477,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>242</v>
       </c>
@@ -5498,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>217</v>
       </c>
@@ -5519,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>218</v>
       </c>
@@ -5540,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>220</v>
       </c>
@@ -5561,7 +5579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -5582,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -5603,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -5624,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -5645,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -5669,7 +5687,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -5690,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -5711,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -5732,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -5753,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>226</v>
       </c>
@@ -5774,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -5795,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>133</v>
       </c>
@@ -5816,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>136</v>
       </c>
@@ -5840,7 +5858,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -5861,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>140</v>
       </c>
@@ -5882,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>98</v>
       </c>
@@ -5903,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -5924,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -5945,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -5966,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -5987,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>234</v>
       </c>
@@ -6008,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>237</v>
       </c>
@@ -6029,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>144</v>
       </c>
@@ -6050,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -6071,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -6092,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>145</v>
       </c>
@@ -6113,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>176</v>
       </c>
@@ -6134,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>30</v>
       </c>
@@ -6179,152 +6197,152 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -6339,15 +6357,15 @@
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="6" width="92.140625" customWidth="1"/>
+    <col min="6" max="6" width="92.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>249</v>
       </c>
@@ -6367,7 +6385,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6387,7 +6405,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6407,7 +6425,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6427,7 +6445,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6447,7 +6465,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6467,7 +6485,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6487,7 +6505,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6507,7 +6525,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6527,7 +6545,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6547,7 +6565,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6567,7 +6585,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6587,7 +6605,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6607,7 +6625,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6627,7 +6645,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6647,7 +6665,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6667,7 +6685,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6687,7 +6705,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6707,7 +6725,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -6727,7 +6745,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -6747,7 +6765,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -6767,7 +6785,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -6787,7 +6805,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -6807,7 +6825,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -6827,7 +6845,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -6847,7 +6865,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -6867,7 +6885,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -6887,7 +6905,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -6907,7 +6925,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -6927,7 +6945,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -6947,7 +6965,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6967,7 +6985,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -6987,7 +7005,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -7007,7 +7025,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -7027,7 +7045,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -7047,7 +7065,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -7067,7 +7085,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -7087,7 +7105,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -7107,7 +7125,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -7127,7 +7145,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -7147,7 +7165,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -7167,7 +7185,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -7187,7 +7205,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -7207,7 +7225,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -7227,7 +7245,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -7247,7 +7265,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -7267,7 +7285,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -7287,7 +7305,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -7307,7 +7325,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -7327,7 +7345,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -7347,7 +7365,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -7367,7 +7385,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -7387,7 +7405,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -7407,7 +7425,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -7427,7 +7445,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -7447,7 +7465,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -7467,7 +7485,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -7487,7 +7505,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -7507,7 +7525,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -7527,7 +7545,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -7547,7 +7565,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -7567,7 +7585,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -7587,7 +7605,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -7607,7 +7625,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -7627,7 +7645,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -7647,7 +7665,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -7667,7 +7685,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -7687,7 +7705,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -7707,7 +7725,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -7727,7 +7745,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -7747,7 +7765,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -7767,7 +7785,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -7787,7 +7805,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -7807,7 +7825,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -7827,7 +7845,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -7847,7 +7865,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -7867,7 +7885,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -7887,7 +7905,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -7907,7 +7925,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -7927,7 +7945,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -7947,7 +7965,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -7967,7 +7985,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -7987,7 +8005,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -8007,7 +8025,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -8027,7 +8045,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -8047,7 +8065,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -8067,7 +8085,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -8087,7 +8105,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -8107,7 +8125,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -8127,7 +8145,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -8147,7 +8165,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -8167,7 +8185,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -8187,7 +8205,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -8207,7 +8225,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -8227,7 +8245,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -8247,7 +8265,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -8267,7 +8285,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -8287,7 +8305,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -8307,7 +8325,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -8327,7 +8345,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -8347,7 +8365,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -8367,7 +8385,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -8387,7 +8405,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -8407,7 +8425,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -8427,7 +8445,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -8447,7 +8465,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -8467,7 +8485,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -8487,7 +8505,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -8507,7 +8525,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -8527,7 +8545,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -8547,7 +8565,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -8567,7 +8585,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -8587,7 +8605,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -8607,7 +8625,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -8627,7 +8645,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -8647,7 +8665,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -8667,7 +8685,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -8687,7 +8705,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -8707,7 +8725,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -8727,7 +8745,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -8747,7 +8765,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -8767,7 +8785,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -8787,7 +8805,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -8807,7 +8825,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -8827,7 +8845,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -8847,7 +8865,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -8867,7 +8885,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -8887,7 +8905,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -8907,7 +8925,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -8927,7 +8945,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -8947,7 +8965,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -8967,7 +8985,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -8987,7 +9005,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -9007,7 +9025,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -9027,7 +9045,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -9047,7 +9065,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -9067,7 +9085,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -9087,7 +9105,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -9107,7 +9125,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -9127,7 +9145,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -9147,7 +9165,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -9167,7 +9185,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -9187,7 +9205,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -9207,7 +9225,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A144" s="3">
         <v>300</v>
       </c>
@@ -9227,7 +9245,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A145" s="3">
         <v>301</v>
       </c>
@@ -9247,7 +9265,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A146" s="3">
         <v>302</v>
       </c>
@@ -9267,7 +9285,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A147" s="3">
         <v>303</v>
       </c>
@@ -9287,7 +9305,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A148" s="3">
         <v>304</v>
       </c>
@@ -9307,7 +9325,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A149" s="3">
         <v>310</v>
       </c>
@@ -9327,7 +9345,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A150" s="3">
         <v>311</v>
       </c>
@@ -9347,7 +9365,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A151" s="3">
         <v>312</v>
       </c>
@@ -9367,7 +9385,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A152" s="3">
         <v>313</v>
       </c>
@@ -9387,7 +9405,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A153" s="3">
         <v>315</v>
       </c>
@@ -9407,7 +9425,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A154" s="3">
         <v>316</v>
       </c>
@@ -9427,7 +9445,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A155" s="3">
         <v>317</v>
       </c>
@@ -9447,7 +9465,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A156" s="3">
         <v>318</v>
       </c>
@@ -9467,7 +9485,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A157" s="3">
         <v>319</v>
       </c>
@@ -9487,7 +9505,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A158" s="3">
         <v>320</v>
       </c>
@@ -9507,7 +9525,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A159" s="3">
         <v>321</v>
       </c>
@@ -9527,7 +9545,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A160" s="3">
         <v>322</v>
       </c>
@@ -9547,7 +9565,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A161" s="3">
         <v>323</v>
       </c>
@@ -9567,7 +9585,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A162" s="3">
         <v>324</v>
       </c>
@@ -9587,7 +9605,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A163" s="3">
         <v>325</v>
       </c>
@@ -9607,7 +9625,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A164" s="3">
         <v>326</v>
       </c>
@@ -9627,7 +9645,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A165" s="3">
         <v>327</v>
       </c>
@@ -9647,7 +9665,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A166" s="3">
         <v>350</v>
       </c>
@@ -9667,7 +9685,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A167" s="3">
         <v>351</v>
       </c>
@@ -9687,7 +9705,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A168" s="3">
         <v>352</v>
       </c>
@@ -9707,7 +9725,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A169" s="3">
         <v>353</v>
       </c>
@@ -9727,7 +9745,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A170" s="3">
         <v>354</v>
       </c>
@@ -9747,7 +9765,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A171" s="3">
         <v>355</v>
       </c>
@@ -9767,7 +9785,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A172" s="3">
         <v>356</v>
       </c>
@@ -9787,7 +9805,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A173" s="3">
         <v>357</v>
       </c>
@@ -9807,7 +9825,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A174" s="3">
         <v>358</v>
       </c>
@@ -9827,7 +9845,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A175" s="3">
         <v>359</v>
       </c>
@@ -9847,7 +9865,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A176" s="3">
         <v>360</v>
       </c>
@@ -9867,7 +9885,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A177" s="3">
         <v>361</v>
       </c>
@@ -9887,7 +9905,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A178" s="3">
         <v>362</v>
       </c>
@@ -9907,7 +9925,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A179" s="3">
         <v>363</v>
       </c>
@@ -9927,7 +9945,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A180" s="3">
         <v>364</v>
       </c>
@@ -9947,7 +9965,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A181" s="3">
         <v>365</v>
       </c>
@@ -9967,7 +9985,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A182" s="3">
         <v>366</v>
       </c>
@@ -9987,7 +10005,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A183" s="3">
         <v>367</v>
       </c>
@@ -10007,7 +10025,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A184" s="3">
         <v>368</v>
       </c>
@@ -10027,7 +10045,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A185" s="3">
         <v>369</v>
       </c>
@@ -10047,7 +10065,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A186" s="3">
         <v>370</v>
       </c>
@@ -10067,7 +10085,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A187" s="3">
         <v>371</v>
       </c>
@@ -10087,7 +10105,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A188" s="3">
         <v>372</v>
       </c>
@@ -10107,7 +10125,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A189" s="3">
         <v>400</v>
       </c>
@@ -10127,7 +10145,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A190" s="3">
         <v>401</v>
       </c>
@@ -10147,7 +10165,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A191" s="3">
         <v>402</v>
       </c>
@@ -10167,7 +10185,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A192" s="3">
         <v>403</v>
       </c>
@@ -10187,7 +10205,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A193" s="3">
         <v>404</v>
       </c>
@@ -10207,7 +10225,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A194" s="3">
         <v>405</v>
       </c>
@@ -10227,7 +10245,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A195" s="3">
         <v>406</v>
       </c>
@@ -10247,7 +10265,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A196" s="3">
         <v>407</v>
       </c>
@@ -10267,7 +10285,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A197" s="3">
         <v>408</v>
       </c>
@@ -10287,7 +10305,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A198" s="3">
         <v>409</v>
       </c>
@@ -10307,7 +10325,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A199" s="3">
         <v>410</v>
       </c>
@@ -10327,7 +10345,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A200" s="3">
         <v>411</v>
       </c>
@@ -10347,7 +10365,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A201" s="3">
         <v>412</v>
       </c>
@@ -10367,7 +10385,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A202" s="3">
         <v>413</v>
       </c>
@@ -10387,7 +10405,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A203" s="3">
         <v>414</v>
       </c>
@@ -10407,7 +10425,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A204" s="3">
         <v>415</v>
       </c>
@@ -10427,7 +10445,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A205" s="3">
         <v>416</v>
       </c>
@@ -10447,7 +10465,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A206" s="3">
         <v>417</v>
       </c>
@@ -10467,7 +10485,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A207" s="3">
         <v>418</v>
       </c>
@@ -10487,7 +10505,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A208" s="3">
         <v>419</v>
       </c>
@@ -10507,7 +10525,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A209" s="3">
         <v>420</v>
       </c>
@@ -10527,7 +10545,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A210" s="3">
         <v>421</v>
       </c>
@@ -10547,7 +10565,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A211" s="3">
         <v>422</v>
       </c>
@@ -10567,7 +10585,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A212" s="3">
         <v>423</v>
       </c>
@@ -10587,7 +10605,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A213" s="3">
         <v>424</v>
       </c>
@@ -10607,7 +10625,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A214" s="3">
         <v>425</v>
       </c>
@@ -10627,7 +10645,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A215" s="3">
         <v>426</v>
       </c>
@@ -10647,7 +10665,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A216" s="3">
         <v>427</v>
       </c>
@@ -10667,7 +10685,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A217" s="3">
         <v>428</v>
       </c>
@@ -10687,7 +10705,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A218" s="3">
         <v>429</v>
       </c>
@@ -10707,7 +10725,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A219" s="3">
         <v>430</v>
       </c>
@@ -10727,7 +10745,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A220" s="3">
         <v>431</v>
       </c>
@@ -10747,7 +10765,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A221" s="3">
         <v>432</v>
       </c>
@@ -10767,7 +10785,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A222" s="3">
         <v>433</v>
       </c>
@@ -10787,7 +10805,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A223" s="3">
         <v>434</v>
       </c>
@@ -10807,7 +10825,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A224" s="3">
         <v>435</v>
       </c>
@@ -10827,7 +10845,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A225" s="3">
         <v>436</v>
       </c>
@@ -10847,7 +10865,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A226" s="3">
         <v>437</v>
       </c>
@@ -10867,7 +10885,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A227" s="3">
         <v>438</v>
       </c>
@@ -10887,7 +10905,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A228" s="3">
         <v>439</v>
       </c>
@@ -10907,7 +10925,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A229" s="3">
         <v>440</v>
       </c>
@@ -10927,7 +10945,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A230" s="3">
         <v>441</v>
       </c>
@@ -10947,7 +10965,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A231" s="3">
         <v>442</v>
       </c>
@@ -10967,7 +10985,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A232" s="3">
         <v>443</v>
       </c>
@@ -10987,7 +11005,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A233" s="3">
         <v>444</v>
       </c>
@@ -11007,7 +11025,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A234" s="3">
         <v>445</v>
       </c>
@@ -11027,7 +11045,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A235" s="3">
         <v>446</v>
       </c>
@@ -11047,7 +11065,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A236" s="3">
         <v>447</v>
       </c>
@@ -11067,7 +11085,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A237" s="3">
         <v>448</v>
       </c>
@@ -11087,7 +11105,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A238" s="3">
         <v>449</v>
       </c>
@@ -11107,7 +11125,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A239" s="3">
         <v>450</v>
       </c>
@@ -11127,7 +11145,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A240" s="3">
         <v>451</v>
       </c>
@@ -11147,7 +11165,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A241" s="3">
         <v>452</v>
       </c>
@@ -11167,7 +11185,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A242" s="3">
         <v>453</v>
       </c>
@@ -11187,7 +11205,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A243" s="3">
         <v>454</v>
       </c>
@@ -11207,7 +11225,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A244" s="3">
         <v>455</v>
       </c>
@@ -11227,7 +11245,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A245" s="3">
         <v>456</v>
       </c>
@@ -11247,7 +11265,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A246" s="3">
         <v>457</v>
       </c>
@@ -11267,7 +11285,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A247" s="3">
         <v>458</v>
       </c>
@@ -11287,7 +11305,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A248" s="3">
         <v>459</v>
       </c>
@@ -11307,7 +11325,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A249" s="3">
         <v>460</v>
       </c>
@@ -11327,7 +11345,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A250" s="3">
         <v>461</v>
       </c>
@@ -11347,7 +11365,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A251" s="3">
         <v>462</v>
       </c>
@@ -11367,7 +11385,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A252" s="3">
         <v>463</v>
       </c>
@@ -11387,7 +11405,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A253" s="3">
         <v>464</v>
       </c>
@@ -11407,7 +11425,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A254" s="3">
         <v>465</v>
       </c>
@@ -11427,7 +11445,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A255" s="3">
         <v>466</v>
       </c>
@@ -11447,7 +11465,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A256" s="3">
         <v>467</v>
       </c>
@@ -11467,7 +11485,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A257" s="3">
         <v>468</v>
       </c>
@@ -11487,7 +11505,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A258" s="3">
         <v>469</v>
       </c>
@@ -11507,7 +11525,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A259" s="3">
         <v>470</v>
       </c>
@@ -11527,7 +11545,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A260" s="3">
         <v>471</v>
       </c>
@@ -11547,7 +11565,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A261" s="3">
         <v>472</v>
       </c>
@@ -11567,7 +11585,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A262" s="3">
         <v>473</v>
       </c>
@@ -11587,7 +11605,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A263" s="3">
         <v>474</v>
       </c>
@@ -11607,7 +11625,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A264" s="3">
         <v>480</v>
       </c>
@@ -11627,7 +11645,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A265" s="3">
         <v>481</v>
       </c>
@@ -11647,7 +11665,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A266" s="3">
         <v>482</v>
       </c>
@@ -11667,7 +11685,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A267" s="3">
         <v>483</v>
       </c>
@@ -11687,7 +11705,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A268" s="3">
         <v>484</v>
       </c>
@@ -11707,7 +11725,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A269" s="3">
         <v>485</v>
       </c>
@@ -11727,7 +11745,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A270" s="3">
         <v>486</v>
       </c>
@@ -11747,7 +11765,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A271" s="3">
         <v>487</v>
       </c>
@@ -11767,7 +11785,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A272" s="3">
         <v>488</v>
       </c>
@@ -11787,7 +11805,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A273" s="3">
         <v>490</v>
       </c>
@@ -11807,7 +11825,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A274" s="3">
         <v>491</v>
       </c>
@@ -11827,7 +11845,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A275" s="3">
         <v>492</v>
       </c>
@@ -11847,7 +11865,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A276" s="3">
         <v>493</v>
       </c>
@@ -11867,7 +11885,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A277" s="3">
         <v>494</v>
       </c>
@@ -11887,7 +11905,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A278" s="3">
         <v>495</v>
       </c>
@@ -11907,7 +11925,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A279" s="3">
         <v>496</v>
       </c>
@@ -11927,7 +11945,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A280" s="3">
         <v>497</v>
       </c>
@@ -11947,7 +11965,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A281" s="3">
         <v>600</v>
       </c>
@@ -11967,7 +11985,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A282" s="3">
         <v>601</v>
       </c>
@@ -11987,7 +12005,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A283" s="3">
         <v>602</v>
       </c>
@@ -12007,7 +12025,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A284" s="3">
         <v>603</v>
       </c>
@@ -12027,7 +12045,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A285" s="3">
         <v>604</v>
       </c>
@@ -12047,7 +12065,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A286" s="3">
         <v>610</v>
       </c>
@@ -12067,7 +12085,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A287" s="3">
         <v>611</v>
       </c>
@@ -12087,7 +12105,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A288" s="3">
         <v>612</v>
       </c>
@@ -12107,7 +12125,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A289" s="3">
         <v>613</v>
       </c>
@@ -12127,7 +12145,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A290" s="3">
         <v>614</v>
       </c>
@@ -12147,7 +12165,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A291" s="3">
         <v>615</v>
       </c>
@@ -12167,7 +12185,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A292" s="3">
         <v>616</v>
       </c>
@@ -12187,7 +12205,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A293" s="3">
         <v>617</v>
       </c>
@@ -12207,7 +12225,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A294" s="3">
         <v>618</v>
       </c>
@@ -12227,7 +12245,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A295" s="3">
         <v>619</v>
       </c>
@@ -12247,7 +12265,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A296" s="3">
         <v>620</v>
       </c>
@@ -12267,7 +12285,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A297" s="3">
         <v>621</v>
       </c>
@@ -12287,7 +12305,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A298" s="3">
         <v>622</v>
       </c>
@@ -12307,7 +12325,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A299" s="3">
         <v>623</v>
       </c>
@@ -12327,7 +12345,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A300" s="3">
         <v>624</v>
       </c>
@@ -12347,7 +12365,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A301" s="3">
         <v>625</v>
       </c>
@@ -12367,7 +12385,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A302" s="3">
         <v>626</v>
       </c>
@@ -12387,7 +12405,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A303" s="3">
         <v>627</v>
       </c>
@@ -12407,7 +12425,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A304" s="3">
         <v>628</v>
       </c>
@@ -12427,7 +12445,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A305" s="3">
         <v>629</v>
       </c>
@@ -12447,7 +12465,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A306" s="3">
         <v>630</v>
       </c>
@@ -12467,7 +12485,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A307" s="3">
         <v>631</v>
       </c>
@@ -12487,7 +12505,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A308" s="3">
         <v>632</v>
       </c>
@@ -12507,7 +12525,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A309" s="3">
         <v>633</v>
       </c>
@@ -12527,7 +12545,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A310" s="3">
         <v>634</v>
       </c>
@@ -12547,7 +12565,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A311" s="3">
         <v>635</v>
       </c>
@@ -12567,7 +12585,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A312" s="3">
         <v>636</v>
       </c>
@@ -12587,7 +12605,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A313" s="3">
         <v>640</v>
       </c>
@@ -12607,7 +12625,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A314" s="3">
         <v>641</v>
       </c>
@@ -12627,7 +12645,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A315" s="3">
         <v>642</v>
       </c>
@@ -12647,7 +12665,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A316" s="3">
         <v>643</v>
       </c>
@@ -12667,7 +12685,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A317" s="3">
         <v>644</v>
       </c>
@@ -12687,7 +12705,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A318" s="3">
         <v>645</v>
       </c>
@@ -12707,7 +12725,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A319" s="3">
         <v>646</v>
       </c>
@@ -12727,7 +12745,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A320" s="3">
         <v>647</v>
       </c>
@@ -12747,7 +12765,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A321" s="3">
         <v>650</v>
       </c>
@@ -12767,7 +12785,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A322" s="3">
         <v>651</v>
       </c>
@@ -12787,7 +12805,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A323" s="3">
         <v>652</v>
       </c>
@@ -12807,7 +12825,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A324" s="3">
         <v>653</v>
       </c>
@@ -12827,7 +12845,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A325" s="3">
         <v>654</v>
       </c>
@@ -12847,7 +12865,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A326" s="3">
         <v>655</v>
       </c>
@@ -12867,7 +12885,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A327" s="3">
         <v>656</v>
       </c>
@@ -12887,7 +12905,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A328" s="3">
         <v>657</v>
       </c>
@@ -12907,7 +12925,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A329" s="3">
         <v>658</v>
       </c>
@@ -12927,7 +12945,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A330" s="3">
         <v>659</v>
       </c>
@@ -12947,7 +12965,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A331" s="3">
         <v>660</v>
       </c>
@@ -12967,7 +12985,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A332" s="3">
         <v>661</v>
       </c>
@@ -12987,7 +13005,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A333" s="3">
         <v>662</v>
       </c>
@@ -13007,7 +13025,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A334" s="3">
         <v>663</v>
       </c>
@@ -13027,7 +13045,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A335" s="3">
         <v>664</v>
       </c>
@@ -13047,7 +13065,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A336" s="3">
         <v>665</v>
       </c>
@@ -13067,7 +13085,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A337" s="3">
         <v>666</v>
       </c>
@@ -13087,7 +13105,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A338" s="3">
         <v>667</v>
       </c>
@@ -13107,7 +13125,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A339" s="3">
         <v>668</v>
       </c>
@@ -13127,7 +13145,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A340" s="3">
         <v>669</v>
       </c>
@@ -13147,7 +13165,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A341" s="3">
         <v>670</v>
       </c>
@@ -13167,7 +13185,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A342" s="3">
         <v>671</v>
       </c>
@@ -13187,7 +13205,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A343" s="3">
         <v>672</v>
       </c>
@@ -13207,7 +13225,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A344" s="3">
         <v>673</v>
       </c>
@@ -13227,7 +13245,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A345" s="3">
         <v>674</v>
       </c>
@@ -13247,7 +13265,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A346" s="3">
         <v>675</v>
       </c>
@@ -13267,7 +13285,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A347" s="3">
         <v>676</v>
       </c>
@@ -13287,7 +13305,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A348" s="3">
         <v>680</v>
       </c>
@@ -13307,7 +13325,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A349" s="3">
         <v>681</v>
       </c>
@@ -13327,7 +13345,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A350" s="3">
         <v>682</v>
       </c>
@@ -13347,7 +13365,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A351" s="3">
         <v>683</v>
       </c>
@@ -13367,7 +13385,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A352" s="3">
         <v>684</v>
       </c>
@@ -13387,7 +13405,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A353" s="3">
         <v>685</v>
       </c>
@@ -13407,7 +13425,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A354" s="3">
         <v>686</v>
       </c>
@@ -13427,7 +13445,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A355" s="3">
         <v>687</v>
       </c>
@@ -13447,7 +13465,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A356" s="3">
         <v>688</v>
       </c>
@@ -13467,7 +13485,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A357" s="3">
         <v>689</v>
       </c>
@@ -13487,7 +13505,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A358" s="3">
         <v>690</v>
       </c>
@@ -13507,7 +13525,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A359" s="3">
         <v>691</v>
       </c>
@@ -13527,7 +13545,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A360" s="3">
         <v>692</v>
       </c>
@@ -13547,7 +13565,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A361" s="3">
         <v>693</v>
       </c>
@@ -13567,7 +13585,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A362" s="3">
         <v>694</v>
       </c>
@@ -13587,7 +13605,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A363" s="3">
         <v>695</v>
       </c>
@@ -13607,7 +13625,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A364" s="3">
         <v>696</v>
       </c>
@@ -13627,7 +13645,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A365" s="3">
         <v>697</v>
       </c>
@@ -13647,7 +13665,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A366" s="3">
         <v>698</v>
       </c>
@@ -13667,7 +13685,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A367" s="3">
         <v>699</v>
       </c>
@@ -13687,7 +13705,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A368" s="3">
         <v>700</v>
       </c>
@@ -13707,7 +13725,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A369" s="3">
         <v>701</v>
       </c>
@@ -13727,7 +13745,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A370" s="3">
         <v>702</v>
       </c>
@@ -13747,7 +13765,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A371" s="3">
         <v>703</v>
       </c>
@@ -13767,7 +13785,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A372" s="3">
         <v>704</v>
       </c>
@@ -13787,7 +13805,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A373" s="3">
         <v>705</v>
       </c>
@@ -13807,7 +13825,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A374" s="3">
         <v>706</v>
       </c>
@@ -13827,7 +13845,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A375" s="3">
         <v>707</v>
       </c>
@@ -13847,7 +13865,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A376" s="3">
         <v>708</v>
       </c>
@@ -13867,7 +13885,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A377" s="3">
         <v>709</v>
       </c>
@@ -13887,7 +13905,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A378" s="3">
         <v>710</v>
       </c>
@@ -13907,7 +13925,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A379" s="3">
         <v>711</v>
       </c>
@@ -13927,7 +13945,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A380" s="3">
         <v>712</v>
       </c>
@@ -13947,7 +13965,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A381" s="3">
         <v>713</v>
       </c>
@@ -13967,7 +13985,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A382" s="3">
         <v>714</v>
       </c>
@@ -13987,7 +14005,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A383" s="3">
         <v>715</v>
       </c>
@@ -14007,7 +14025,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A384" s="3">
         <v>716</v>
       </c>
@@ -14027,7 +14045,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A385" s="3">
         <v>717</v>
       </c>
@@ -14047,7 +14065,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A386" s="3">
         <v>718</v>
       </c>
@@ -14067,7 +14085,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A387" s="3">
         <v>719</v>
       </c>
@@ -14087,7 +14105,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A388" s="3">
         <v>720</v>
       </c>
@@ -14107,7 +14125,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A389" s="3">
         <v>721</v>
       </c>
@@ -14127,7 +14145,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A390" s="3">
         <v>722</v>
       </c>
@@ -14147,7 +14165,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A391" s="3">
         <v>723</v>
       </c>
@@ -14167,7 +14185,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A392" s="3">
         <v>724</v>
       </c>
@@ -14187,7 +14205,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A393" s="3">
         <v>725</v>
       </c>
@@ -14207,7 +14225,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A394" s="3">
         <v>726</v>
       </c>
@@ -14227,7 +14245,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A395" s="3">
         <v>727</v>
       </c>
@@ -14247,7 +14265,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A396" s="3">
         <v>728</v>
       </c>
@@ -14267,7 +14285,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A397" s="3">
         <v>729</v>
       </c>
@@ -14287,7 +14305,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A398" s="3">
         <v>730</v>
       </c>
@@ -14307,7 +14325,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A399" s="3">
         <v>731</v>
       </c>
@@ -14327,7 +14345,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A400" s="3">
         <v>732</v>
       </c>
@@ -14347,7 +14365,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A401" s="3">
         <v>733</v>
       </c>
@@ -14367,7 +14385,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A402" s="3">
         <v>734</v>
       </c>
@@ -14387,7 +14405,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A403" s="3">
         <v>735</v>
       </c>
@@ -14407,7 +14425,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A404" s="3">
         <v>736</v>
       </c>
@@ -14427,7 +14445,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A405" s="3">
         <v>737</v>
       </c>
@@ -14447,7 +14465,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A406" s="3">
         <v>738</v>
       </c>
@@ -14467,7 +14485,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A407" s="3">
         <v>739</v>
       </c>
@@ -14487,7 +14505,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A408" s="3">
         <v>740</v>
       </c>
@@ -14507,7 +14525,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A409" s="3">
         <v>741</v>
       </c>
@@ -14527,7 +14545,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A410" s="3">
         <v>742</v>
       </c>
@@ -14547,7 +14565,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A411" s="3">
         <v>743</v>
       </c>
@@ -14567,7 +14585,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A412" s="3">
         <v>744</v>
       </c>
@@ -14587,7 +14605,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A413" s="3">
         <v>745</v>
       </c>
@@ -14607,7 +14625,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A414" s="3">
         <v>746</v>
       </c>
@@ -14627,7 +14645,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A415" s="3">
         <v>747</v>
       </c>
@@ -14647,7 +14665,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A416" s="3">
         <v>748</v>
       </c>
@@ -14667,7 +14685,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A417" s="3">
         <v>749</v>
       </c>
@@ -14687,7 +14705,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A418" s="3">
         <v>750</v>
       </c>
@@ -14707,7 +14725,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A419" s="3">
         <v>751</v>
       </c>
@@ -14727,7 +14745,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A420" s="3">
         <v>752</v>
       </c>
@@ -14747,7 +14765,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A421" s="3">
         <v>753</v>
       </c>
@@ -14767,7 +14785,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A422" s="3">
         <v>754</v>
       </c>
@@ -14787,7 +14805,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A423" s="3">
         <v>755</v>
       </c>
@@ -14807,7 +14825,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A424" s="3">
         <v>756</v>
       </c>
@@ -14827,7 +14845,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A425" s="3">
         <v>757</v>
       </c>
@@ -14847,7 +14865,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A426" s="3">
         <v>758</v>
       </c>
@@ -14867,7 +14885,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A427" s="3">
         <v>759</v>
       </c>
@@ -14887,7 +14905,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A428" s="3">
         <v>760</v>
       </c>
@@ -14907,7 +14925,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A429" s="3">
         <v>761</v>
       </c>
@@ -14927,7 +14945,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A430" s="3">
         <v>762</v>
       </c>
@@ -14947,7 +14965,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A431" s="3">
         <v>763</v>
       </c>
@@ -14967,7 +14985,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A432" s="3">
         <v>764</v>
       </c>
@@ -14987,7 +15005,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A433" s="3">
         <v>765</v>
       </c>
@@ -15007,7 +15025,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A434" s="3">
         <v>766</v>
       </c>
@@ -15027,7 +15045,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A435" s="3">
         <v>767</v>
       </c>
@@ -15047,7 +15065,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A436" s="3">
         <v>768</v>
       </c>
@@ -15067,7 +15085,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A437" s="3">
         <v>769</v>
       </c>
@@ -15087,7 +15105,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A438" s="3">
         <v>770</v>
       </c>
@@ -15107,7 +15125,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A439" s="3">
         <v>771</v>
       </c>
@@ -15127,7 +15145,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A440" s="3">
         <v>772</v>
       </c>
@@ -15147,7 +15165,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A441" s="3">
         <v>773</v>
       </c>
@@ -15167,7 +15185,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A442" s="3">
         <v>774</v>
       </c>
@@ -15187,7 +15205,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A443" s="3">
         <v>775</v>
       </c>
@@ -15207,7 +15225,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A444" s="3">
         <v>776</v>
       </c>
@@ -15227,7 +15245,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A445" s="3">
         <v>777</v>
       </c>
@@ -15247,7 +15265,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A446" s="3">
         <v>778</v>
       </c>
@@ -15267,7 +15285,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A447" s="3">
         <v>779</v>
       </c>
@@ -15287,7 +15305,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A448" s="3">
         <v>780</v>
       </c>
@@ -15307,7 +15325,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A449" s="3">
         <v>781</v>
       </c>
@@ -15327,7 +15345,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A450" s="3">
         <v>782</v>
       </c>
@@ -15347,7 +15365,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A451" s="3">
         <v>783</v>
       </c>
@@ -15367,7 +15385,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A452" s="3">
         <v>784</v>
       </c>
@@ -15387,7 +15405,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A453" s="3">
         <v>785</v>
       </c>
@@ -15407,7 +15425,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A454" s="3">
         <v>786</v>
       </c>
@@ -15427,7 +15445,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A455" s="3">
         <v>787</v>
       </c>
@@ -15447,7 +15465,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A456" s="3">
         <v>788</v>
       </c>
@@ -15467,7 +15485,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A457" s="3">
         <v>789</v>
       </c>
@@ -15487,7 +15505,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A458" s="3">
         <v>790</v>
       </c>
@@ -15507,7 +15525,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A459" s="3">
         <v>791</v>
       </c>
@@ -15527,7 +15545,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A460" s="3">
         <v>792</v>
       </c>
@@ -15547,7 +15565,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A461" s="3">
         <v>793</v>
       </c>
@@ -15567,7 +15585,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A462" s="3">
         <v>794</v>
       </c>
@@ -15587,7 +15605,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A463" s="3">
         <v>795</v>
       </c>
@@ -15607,7 +15625,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A464" s="3">
         <v>796</v>
       </c>
@@ -15627,7 +15645,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A465" s="3">
         <v>797</v>
       </c>
@@ -15647,7 +15665,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A466" s="3">
         <v>798</v>
       </c>
@@ -15667,7 +15685,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A467" s="3">
         <v>799</v>
       </c>
@@ -15687,7 +15705,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A468" s="3">
         <v>800</v>
       </c>
@@ -15707,7 +15725,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A469" s="3">
         <v>801</v>
       </c>
@@ -15727,7 +15745,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A470" s="3">
         <v>802</v>
       </c>
@@ -15747,7 +15765,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A471" s="3">
         <v>803</v>
       </c>
@@ -15767,7 +15785,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A472" s="3">
         <v>804</v>
       </c>
@@ -15787,7 +15805,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A473" s="3">
         <v>805</v>
       </c>
@@ -15807,7 +15825,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A474" s="3">
         <v>810</v>
       </c>
@@ -15827,7 +15845,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A475" s="3">
         <v>811</v>
       </c>
@@ -15847,7 +15865,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A476" s="3">
         <v>812</v>
       </c>
@@ -15867,7 +15885,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A477" s="3">
         <v>813</v>
       </c>
@@ -15887,7 +15905,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A478" s="3">
         <v>814</v>
       </c>
@@ -15907,7 +15925,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A479" s="3">
         <v>815</v>
       </c>
@@ -15927,7 +15945,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A480" s="3">
         <v>816</v>
       </c>
@@ -15947,7 +15965,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A481" s="3">
         <v>817</v>
       </c>
